--- a/timing.xlsx
+++ b/timing.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johager/Big/Devmountain/assessments/assessment-cs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0B476-FA45-AC4A-A24F-A046C8C6C126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65058F1-E3E4-6D42-9174-D9C4BB3FE6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{65769B2E-A982-8F4E-819A-FAAE07BCE55A}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{65769B2E-A982-8F4E-819A-FAAE07BCE55A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timing Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear vs Quadratic" sheetId="2" r:id="rId2"/>
+    <sheet name="Timing AddToZero" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Linear vs Quadratic'!$B$2:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Timing AddToZero'!$B$2:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Timing Data'!$B$2:$G$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,34 +33,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>length</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>unshift</t>
   </si>
   <si>
     <t>log(length)</t>
   </si>
   <si>
-    <t>time (microseconds)</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y=x</t>
+  </si>
+  <si>
+    <t>y=x^2</t>
+  </si>
+  <si>
+    <t>log(y)</t>
+  </si>
+  <si>
+    <t>Append</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>time (µs)</t>
+  </si>
+  <si>
+    <t>log(time in µs)</t>
+  </si>
+  <si>
+    <t>To Plot</t>
+  </si>
+  <si>
+    <t>log(time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0E+00"/>
+    <numFmt numFmtId="166" formatCode="0E+0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -74,15 +112,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +480,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Timing: push vs unshift</a:t>
+              <a:t>Timing: Append vs Insert</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,13 +521,104 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>push</c:v>
+            <c:v>Insert</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7374999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2785409999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.00295899999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77868.511750000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B16-3344-A0CA-CF180FF2C6ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -205,48 +641,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>'Timing Data'!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>'Timing Data'!$J$4:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.107708</c:v>
+                  <c:v>7.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1659999999999996E-3</c:v>
+                  <c:v>6.2090000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7042E-2</c:v>
+                  <c:v>3.3291999999999898E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4867919999999999</c:v>
+                  <c:v>1.183875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6225829999999899</c:v>
+                  <c:v>1.497125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4272499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,89 +697,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8B16-3344-A0CA-CF180FF2C6ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>unshift</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.46249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.138375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0160419999999899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>768.61212499999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8B16-3344-A0CA-CF180FF2C6ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -355,7 +714,10 @@
       <c:valAx>
         <c:axId val="5671264"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -394,7 +756,604 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>log(length)</a:t>
+                  <a:t>Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312250176"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312250176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (µs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5671264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24215217391304347"/>
+          <c:y val="0.2190292957029332"/>
+          <c:w val="0.12741304347826088"/>
+          <c:h val="0.15589023658416831"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timing: Append vs Insert</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Insert</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$K$4:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7374999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2785409999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.00295899999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77868.511750000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9907-AD47-A480-F5ADC8684C6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Timing Data'!$J$4:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2090000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3291999999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.183875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.497125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4272499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9907-AD47-A480-F5ADC8684C6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5671264"/>
+        <c:axId val="312250176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5671264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -511,7 +1470,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (microsconds)</a:t>
+                  <a:t>Time (µs)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -545,7 +1504,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -596,11 +1555,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23780434782608695"/>
+          <c:y val="0.26983760979069304"/>
+          <c:w val="0.13790588235294118"/>
+          <c:h val="0.15589023658416834"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -669,7 +1642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -704,7 +1677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Timing: push vs unshift</a:t>
+              <a:t>Linear vs. Quadratic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -745,13 +1718,104 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>push</c:v>
+            <c:v>y=x^2, O(n^2)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74DE-5C4D-AB0B-054708AC06A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x, O(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -774,10 +1838,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>'Linear vs Quadratic'!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -792,30 +1856,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>'Linear vs Quadratic'!$C$4:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.107708</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1659999999999996E-3</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7042E-2</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4867919999999999</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6225829999999899</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,90 +1893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9907-AD47-A480-F5ADC8684C6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>unshift</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.46249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.138375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0160419999999899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>768.61212499999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9907-AD47-A480-F5ADC8684C6B}"/>
+              <c16:uniqueId val="{00000000-74DE-5C4D-AB0B-054708AC06A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,7 +1911,9 @@
       <c:valAx>
         <c:axId val="5671264"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -963,7 +1952,604 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>length</a:t>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312250176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312250176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5671264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21715824851161894"/>
+          <c:y val="0.200553545125566"/>
+          <c:w val="0.19747589782984443"/>
+          <c:h val="0.15589023658416831"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear vs. Quadratic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>y=x^2, O(n^2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CC2-8C41-910D-45EC598A5408}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y=x, O(1)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear vs Quadratic'!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CC2-8C41-910D-45EC598A5408}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5671264"/>
+        <c:axId val="312250176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5671264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1080,7 +2666,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (microsconds)</a:t>
+                  <a:t>y</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1095,6 +2681,398 @@
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5671264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21715824851161897"/>
+          <c:y val="0.20517248276990779"/>
+          <c:w val="0.19747589782984443"/>
+          <c:h val="0.15589023658416831"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timing: AddToZero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Timing AddToZero'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Timing AddToZero'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8249999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15554199999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.594374999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3186.769417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320325.13408300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E7D-3146-A8EE-1EA699BC5DDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5671264"/>
+        <c:axId val="312250176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5671264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1151,6 +3129,124 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
+        <c:crossAx val="312250176"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312250176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (µs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="5671264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1163,8 +3259,95 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timing: Add</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>ToZero</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1178,7 +3361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1193,7 +3376,356 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Append</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Timing AddToZero'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Timing AddToZero'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8249999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15554199999999899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5643750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.594374999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3186.769417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320325.13408300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF6D-6447-B99E-CC0615C38DD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5671264"/>
+        <c:axId val="312250176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5671264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312250176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312250176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (µs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5671264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1318,6 +3850,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1835,6 +4527,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2355,15 +7111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2391,15 +7147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2407,6 +7163,168 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220CCE48-C4D1-D44E-A504-1C2295A26DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6D4A76-E945-8843-8C4A-8BE3B6195A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B81A3C-BE65-F148-BF58-B61808BAF8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B9C333-E6F9-4B43-9676-577BEB059599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A496CCAC-011C-5D4A-82B5-88730C2D7F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,106 +7644,676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272CEBA0-0B89-F947-8172-B91B7E5743A6}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="J2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.7374999999999901E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <f>LOG(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <f>LOG(C4)</f>
+        <v>-1.1106982974936896</v>
+      </c>
+      <c r="G4" s="16">
+        <f>LOG(D4)</f>
+        <v>-1.760075186737851</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:K9" si="0">B4</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="K4" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7374999999999901E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
+      <c r="C5" s="20">
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="D5" s="21">
+        <v>7.8750000000000001E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <f>LOG(B5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:G8" si="1">LOG(C5)</f>
+        <v>-2.2069783401540168</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.1037494375383621</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>6.2090000000000001E-3</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" si="0"/>
+        <v>7.8750000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3.3291999999999898E-2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.103584</v>
+      </c>
+      <c r="E6" s="12">
+        <f>LOG(B6)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.4776601140390906</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.98470732227752089</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>3.3291999999999898E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.103584</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.183875</v>
+      </c>
+      <c r="D7" s="21">
+        <v>7.2785409999999997</v>
+      </c>
+      <c r="E7" s="12">
+        <f>LOG(B7)</f>
         <v>4</v>
       </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>7.330584961993622E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.86204433272626479</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.183875</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="0"/>
+        <v>7.2785409999999997</v>
+      </c>
     </row>
-    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.497125</v>
+      </c>
+      <c r="D8" s="21">
+        <v>764.00295899999901</v>
+      </c>
+      <c r="E8" s="12">
+        <f>LOG(B8)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17525806256341353</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.8830950406108768</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>1.497125</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="0"/>
+        <v>764.00295899999901</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="22">
+        <v>11.4272499999999</v>
+      </c>
+      <c r="D9" s="23">
+        <v>77868.511750000005</v>
+      </c>
+      <c r="E9" s="14">
+        <f>LOG(B9)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="17">
+        <f>LOG(C9)</f>
+        <v>1.0579417287749171</v>
+      </c>
+      <c r="G9" s="18">
+        <f>LOG(D9)</f>
+        <v>4.8913618743887231</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>11.4272499999999</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="0"/>
+        <v>77868.511750000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294318F7-B80B-F94A-A0E3-C743BD59AA40}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C9" si="0">B4</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" ref="D4:D9" si="1">B4^2</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="12">
+        <f>LOG(B4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <f>LOG(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <f>LOG(D4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:G9" si="2">LOG(B5)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="27">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10012BCF-5195-3F4F-985C-45BB9E499415}">
+  <dimension ref="B1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="E2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0.107708</v>
-      </c>
-      <c r="D3">
-        <v>2.325E-2</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="32">
+        <v>9.8249999999999907E-2</v>
+      </c>
+      <c r="D3" s="12">
         <f>LOG(B3)</f>
         <v>1</v>
       </c>
+      <c r="E3" s="34">
+        <f>LOG(C3)</f>
+        <v>-1.0076674409525361</v>
+      </c>
+      <c r="G3" s="1">
+        <f>B3</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="19">
+        <f>C3</f>
+        <v>9.8249999999999907E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>8.1659999999999996E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.46249999999999E-2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E7" si="0">LOG(B4)</f>
+      <c r="C4" s="32">
+        <v>0.15554199999999899</v>
+      </c>
+      <c r="D4" s="12">
+        <f>LOG(B4)</f>
         <v>2</v>
       </c>
+      <c r="E4" s="34">
+        <f>LOG(C4)</f>
+        <v>-0.8081523210721695</v>
+      </c>
+      <c r="G4" s="1">
+        <f>B4</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="19">
+        <f>C4</f>
+        <v>0.15554199999999899</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>1000</v>
       </c>
-      <c r="C5">
-        <v>4.7042E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.138375</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="C5" s="32">
+        <v>8.5643750000000001</v>
+      </c>
+      <c r="D5" s="12">
+        <f>LOG(B5)</f>
         <v>3</v>
       </c>
+      <c r="E5" s="34">
+        <f>LOG(C5)</f>
+        <v>0.93269567507092432</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B5</f>
+        <v>1000</v>
+      </c>
+      <c r="H5" s="19">
+        <f>C5</f>
+        <v>8.5643750000000001</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>10000</v>
       </c>
-      <c r="C6">
-        <v>1.4867919999999999</v>
-      </c>
-      <c r="D6">
-        <v>9.0160419999999899</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
+      <c r="C6" s="32">
+        <v>32.594374999999999</v>
+      </c>
+      <c r="D6" s="12">
+        <f>LOG(B6)</f>
         <v>4</v>
       </c>
+      <c r="E6" s="34">
+        <f>LOG(C6)</f>
+        <v>1.5131426578212568</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B6</f>
+        <v>10000</v>
+      </c>
+      <c r="H6" s="19">
+        <f>C6</f>
+        <v>32.594374999999999</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>100000</v>
       </c>
-      <c r="C7">
-        <v>1.6225829999999899</v>
-      </c>
-      <c r="D7">
-        <v>768.61212499999999</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="C7" s="32">
+        <v>3186.769417</v>
+      </c>
+      <c r="D7" s="12">
+        <f>LOG(B7)</f>
         <v>5</v>
+      </c>
+      <c r="E7" s="34">
+        <f>LOG(C7)</f>
+        <v>3.5033506406474544</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B7</f>
+        <v>100000</v>
+      </c>
+      <c r="H7" s="19">
+        <f>C7</f>
+        <v>3186.769417</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="33">
+        <v>320325.13408300001</v>
+      </c>
+      <c r="D8" s="14">
+        <f>LOG(B8)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="35">
+        <f>LOG(C8)</f>
+        <v>5.5055910166073163</v>
+      </c>
+      <c r="G8" s="1">
+        <f>B8</f>
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="19">
+        <f>C8</f>
+        <v>320325.13408300001</v>
       </c>
     </row>
   </sheetData>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johager/Big/Devmountain/assessments/assessment-cs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65058F1-E3E4-6D42-9174-D9C4BB3FE6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9694A23E-9381-9845-8925-562AC8D4DB3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{65769B2E-A982-8F4E-819A-FAAE07BCE55A}"/>
   </bookViews>
@@ -543,9 +543,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1740,9 +1738,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -7647,7 +7643,7 @@
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7929,7 +7925,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8135,7 +8131,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
